--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -538,10 +538,6 @@
   </si>
   <si>
     <t>收受者統一編號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶檔編號對應之統一編號 左靠右補空白</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -963,6 +959,14 @@
 2:ACH他行
 else:非ACH</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本人時取客戶檔編號對應之統一編號 左靠右補空白</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>為本人時取客戶檔編號對應之統一編號 左靠右補空白</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1649,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1813,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1875,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>32</v>
@@ -1887,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1925,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2017,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2163,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2357,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2375,28 +2379,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>208</v>
-      </c>
       <c r="G1" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2404,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>213</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>96</v>
@@ -2423,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2431,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>106</v>
@@ -2451,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2459,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>106</v>
@@ -2479,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2487,10 +2491,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>106</v>
@@ -2507,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2515,10 +2519,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>106</v>
@@ -2535,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2543,10 +2547,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>106</v>
@@ -2563,7 +2567,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2571,10 +2575,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>96</v>
@@ -2625,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2653,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2871,7 +2875,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2955,7 +2959,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2963,10 +2967,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>96</v>
@@ -2983,7 +2987,7 @@
         <v>93</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2991,10 +2995,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>106</v>
@@ -3011,7 +3015,7 @@
         <v>101</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3019,10 +3023,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>106</v>
@@ -3047,10 +3051,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>96</v>
@@ -3075,10 +3079,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>96</v>
@@ -3095,7 +3099,7 @@
         <v>128</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3103,10 +3107,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>96</v>
@@ -3123,7 +3127,7 @@
         <v>148</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3131,10 +3135,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>96</v>
@@ -3151,7 +3155,7 @@
         <v>158</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3159,10 +3163,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>96</v>
@@ -3197,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>96</v>
@@ -3215,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3223,10 +3227,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>96</v>
@@ -3243,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3251,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>106</v>
@@ -3271,7 +3275,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3279,10 +3283,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>184</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>106</v>
@@ -3299,7 +3303,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3307,10 +3311,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>106</v>
@@ -3327,7 +3331,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3335,10 +3339,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>106</v>
@@ -3355,7 +3359,7 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3363,10 +3367,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>106</v>
@@ -3383,7 +3387,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3391,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>96</v>
@@ -3424,7 +3428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
@@ -3442,31 +3448,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>210</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>211</v>
       </c>
       <c r="J1" s="35"/>
     </row>
@@ -3475,10 +3481,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>213</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>96</v>
@@ -3494,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3504,10 +3510,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>106</v>
@@ -3524,10 +3530,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="J3" s="28"/>
     </row>
@@ -3536,10 +3542,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>106</v>
@@ -3556,7 +3562,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -3566,10 +3572,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>106</v>
@@ -3586,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -3596,10 +3602,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>106</v>
@@ -3616,7 +3622,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -3626,10 +3632,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>106</v>
@@ -3646,7 +3652,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -3656,10 +3662,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>96</v>
@@ -3717,7 +3723,7 @@
         <v>97</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="28"/>
     </row>
@@ -4022,7 +4028,7 @@
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4082,11 +4088,11 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4094,10 +4100,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>96</v>
@@ -4114,11 +4120,11 @@
         <v>93</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4126,10 +4132,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>106</v>
@@ -4146,11 +4152,11 @@
         <v>101</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4158,10 +4164,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>106</v>
@@ -4178,11 +4184,11 @@
         <v>107</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4190,10 +4196,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>96</v>
@@ -4210,11 +4216,11 @@
         <v>108</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4222,10 +4228,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>96</v>
@@ -4242,11 +4248,11 @@
         <v>128</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4254,10 +4260,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>96</v>
@@ -4274,11 +4280,11 @@
         <v>148</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4286,10 +4292,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>96</v>
@@ -4306,11 +4312,11 @@
         <v>158</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4318,10 +4324,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>96</v>
@@ -4342,7 +4348,7 @@
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4356,7 +4362,7 @@
       <c r="H31" s="32"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4364,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>96</v>
@@ -4382,11 +4388,11 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4394,10 +4400,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>96</v>
@@ -4414,13 +4420,13 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4428,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>106</v>
@@ -4448,11 +4454,11 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4460,10 +4466,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>184</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>106</v>
@@ -4480,11 +4486,11 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4492,10 +4498,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>106</v>
@@ -4512,11 +4518,11 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4524,10 +4530,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>106</v>
@@ -4544,11 +4550,11 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4556,10 +4562,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>106</v>
@@ -4576,11 +4582,11 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4588,10 +4594,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>106</v>
@@ -4608,11 +4614,11 @@
         <v>63</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4620,10 +4626,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>96</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="240">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -639,10 +639,6 @@
   </si>
   <si>
     <t>存摺摘要</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>801 左靠右補空白</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -966,6 +962,16 @@
   </si>
   <si>
     <t>為本人時取客戶檔編號對應之統一編號 左靠右補空白</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>8120012 台新 0060567 合作金庫 1030019 新光</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.左靠右補空白
+2.非新光 : 放空白
+3.新光 : 火險放705, 其他放801</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1879,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>32</v>
@@ -1891,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1929,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2021,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2167,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2361,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2379,28 +2385,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>207</v>
-      </c>
       <c r="G1" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2408,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>212</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>96</v>
@@ -2427,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2435,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>106</v>
@@ -2455,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2463,10 +2469,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>106</v>
@@ -2483,7 +2489,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2491,10 +2497,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>218</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>106</v>
@@ -2511,7 +2517,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2519,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>106</v>
@@ -2539,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2547,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>106</v>
@@ -2567,7 +2573,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2575,10 +2581,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>96</v>
@@ -2629,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2657,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2795,7 +2801,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2875,7 +2881,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2959,7 +2965,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3015,7 +3021,7 @@
         <v>101</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3130,7 +3136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="46.8">
       <c r="A29" s="26">
         <v>20</v>
       </c>
@@ -3154,8 +3160,8 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>163</v>
+      <c r="H29" s="30" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3163,10 +3169,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>96</v>
@@ -3201,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>96</v>
@@ -3219,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3227,10 +3233,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>96</v>
@@ -3247,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3255,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>106</v>
@@ -3275,7 +3281,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3283,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>106</v>
@@ -3303,7 +3309,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3311,10 +3317,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>106</v>
@@ -3331,7 +3337,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3339,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>106</v>
@@ -3359,7 +3365,7 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3367,10 +3373,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>106</v>
@@ -3387,7 +3393,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3395,10 +3401,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>96</v>
@@ -3428,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3448,31 +3454,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>209</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>210</v>
       </c>
       <c r="J1" s="35"/>
     </row>
@@ -3481,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>212</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>96</v>
@@ -3500,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3510,10 +3516,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>106</v>
@@ -3530,10 +3536,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>175</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>176</v>
       </c>
       <c r="J3" s="28"/>
     </row>
@@ -3542,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>106</v>
@@ -3562,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -3572,10 +3578,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>218</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>106</v>
@@ -3592,7 +3598,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -3602,10 +3608,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>106</v>
@@ -3622,7 +3628,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -3632,10 +3638,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>106</v>
@@ -3652,7 +3658,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -3662,10 +3668,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>96</v>
@@ -3723,7 +3729,7 @@
         <v>97</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J10" s="28"/>
     </row>
@@ -4028,7 +4034,7 @@
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4088,7 +4094,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
@@ -4287,7 +4293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="46.8">
       <c r="A29" s="26">
         <v>20</v>
       </c>
@@ -4311,12 +4317,12 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="H29" s="27" t="s">
-        <v>163</v>
+      <c r="H29" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4324,10 +4330,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>96</v>
@@ -4348,7 +4354,7 @@
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4362,7 +4368,7 @@
       <c r="H31" s="32"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4370,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>96</v>
@@ -4388,11 +4394,11 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4400,10 +4406,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>96</v>
@@ -4420,13 +4426,13 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4434,10 +4440,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>106</v>
@@ -4454,11 +4460,11 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4466,10 +4472,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>106</v>
@@ -4486,11 +4492,11 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4498,10 +4504,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>106</v>
@@ -4518,11 +4524,11 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4530,10 +4536,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>106</v>
@@ -4550,11 +4556,11 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4562,10 +4568,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>106</v>
@@ -4582,11 +4588,11 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4594,10 +4600,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>106</v>
@@ -4614,11 +4620,11 @@
         <v>63</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4626,10 +4632,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>96</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732FFA9B-B3C4-4089-AC52-B1A0AE30849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,21 +18,12 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -313,10 +305,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -333,10 +321,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -974,12 +958,16 @@
 3.新光 : 火險放705, 其他放801</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1212,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,10 +1216,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1242,9 +1230,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1257,9 +1242,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,9 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1354,7 +1333,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1371,9 +1350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1411,9 +1390,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1448,7 +1427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1483,7 +1462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1656,29 +1635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1689,83 +1668,83 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="45" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1784,500 +1763,500 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" ht="48.6">
-      <c r="A10" s="16">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16">
+      <c r="G10" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>6</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>7</v>
       </c>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" ht="145.80000000000001">
-      <c r="A14" s="16">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>2</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16">
+      <c r="G14" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>14</v>
       </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" ht="405">
-      <c r="A16" s="16">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16">
+      <c r="G16" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>8</v>
       </c>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>8</v>
       </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="16">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="16">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="64.8">
-      <c r="A21" s="16">
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16">
+      <c r="G21" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <v>3</v>
       </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="16">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>8</v>
       </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>8</v>
       </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="16">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>2</v>
       </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="16">
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <v>100</v>
       </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="16">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>10</v>
       </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="16">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>8</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="16">
+      <c r="G29" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <v>6</v>
       </c>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16">
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="16">
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="E33" s="19">
+        <v>6</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="22">
+      <c r="C34" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="19">
         <v>6</v>
       </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="16">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="22">
-        <v>6</v>
-      </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2291,7 +2270,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G16" location="提回!A1" display="提回規格"/>
+    <hyperlink ref="G16" location="提回!A1" display="提回規格" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2299,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2307,7 +2286,7 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="115.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2315,7 +2294,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2334,18 +2313,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -2364,14 +2343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -2383,1045 +2362,1045 @@
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="34" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="36">
+      <c r="C2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="33">
         <v>3</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <v>0</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="33">
         <f>F2+E2</f>
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="26">
+      <c r="H2" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="23">
         <v>6</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <f>G2</f>
         <v>3</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G8" si="0">F3+E3</f>
         <v>9</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="36">
+      <c r="H3" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="23">
         <v>8</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F8" si="1">G3</f>
         <v>9</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="26">
+      <c r="H4" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="23">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="36">
+      <c r="H5" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="B6" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="23">
         <v>7</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="26">
+      <c r="H6" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="B7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23">
         <v>7</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="36">
+      <c r="H7" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="B8" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="23">
         <v>123</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="26">
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="26">
+      <c r="C11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="26">
-        <v>2</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <f>G10</f>
         <v>1</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <f>F11+E11</f>
         <v>3</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="26">
+      <c r="H11" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="B12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23">
         <v>3</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <f>G11</f>
         <v>3</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="23">
         <f t="shared" ref="G12:G30" si="2">F12+E12</f>
         <v>6</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>6</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <f t="shared" ref="F13:F30" si="3">G12</f>
         <v>6</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="26">
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="26">
+      <c r="C14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="23">
         <v>7</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="23">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="26">
+      <c r="H14" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="B15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="23">
         <v>14</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26">
+      <c r="H15" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="B16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="23">
         <v>7</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="26">
+      <c r="H16" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="B17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="23">
         <v>14</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="23">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="26">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="B18" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="23">
         <v>10</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="23">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="23">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="26">
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="23">
         <v>2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="26">
+      <c r="H19" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="B20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="23">
         <v>1</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="23">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="23">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="26">
-        <v>12</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23">
         <v>10</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="23">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="26">
-        <v>13</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="C22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="23">
         <v>10</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="23">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="26">
+      <c r="H22" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <v>14</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="B23" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="23">
         <v>6</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="23">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26">
-        <v>15</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="C24" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="23">
         <v>8</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="H24" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="26">
+      <c r="H24" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>16</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="B25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="23">
         <v>6</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="23">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="23">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="26">
+      <c r="H25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>17</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="B26" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="23">
         <v>1</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="23">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="26">
+      <c r="H26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>18</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="B27" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="23">
         <v>20</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="23">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="23">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="26">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="C28" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="23">
         <v>20</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="23">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="23">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="46.8">
-      <c r="A29" s="26">
-        <v>20</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="C29" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="23">
         <v>10</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="23">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="23">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="26">
+      <c r="H29" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>21</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="B30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="23">
         <v>2</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="23">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="23">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="26">
+      <c r="H30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
         <v>1</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="23">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="26">
-        <v>3</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>3</v>
-      </c>
-      <c r="H32" s="27" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>2</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="26">
-        <v>2</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="C33" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="23">
         <v>6</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="23">
         <f>G32</f>
         <v>3</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <f>F33+E33</f>
         <v>9</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>3</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="26">
-        <v>3</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="C34" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="23">
         <v>8</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="23">
         <f t="shared" ref="F34:F39" si="4">G33</f>
         <v>9</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="23">
         <f t="shared" ref="G34:G39" si="5">F34+E34</f>
         <v>17</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>4</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="26">
-        <v>4</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="C35" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="23">
         <v>7</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="23">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="23">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="26">
+      <c r="H35" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
         <v>5</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="B36" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="23">
         <v>7</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="23">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="23">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26">
+      <c r="H36" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
         <v>6</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="26">
+      <c r="B37" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="23">
         <v>8</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="23">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="23">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>7</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="26">
-        <v>7</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="26">
+      <c r="C38" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="23">
         <v>16</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="23">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="23">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="26">
+      <c r="H38" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
         <v>8</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="26">
+      <c r="B39" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="23">
         <v>105</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="23">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="23">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>125</v>
+      <c r="H39" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3431,14 +3410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -3452,1210 +3431,1210 @@
     <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.8" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="36">
+      <c r="D2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="33">
         <v>3</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <v>0</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="33">
         <f>F2+E2</f>
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="26">
+      <c r="H2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="23">
         <v>6</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <f>G2</f>
         <v>3</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G8" si="0">F3+E3</f>
         <v>9</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="36">
+      <c r="H3" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="23">
         <v>8</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F8" si="1">G3</f>
         <v>9</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="26">
+      <c r="H4" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="23">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="36">
+      <c r="H5" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="B6" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="23">
         <v>7</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="26">
+      <c r="H6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="B7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23">
         <v>7</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="36">
+      <c r="H7" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="B8" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="23">
         <v>123</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="26">
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="I10" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="26">
+      <c r="D11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="26">
-        <v>2</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <f>G10</f>
         <v>1</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <f>F11+E11</f>
         <v>3</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="26">
+      <c r="D12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="26">
-        <v>3</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <f>G11</f>
         <v>3</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="23">
         <f t="shared" ref="G12:G30" si="2">F12+E12</f>
         <v>6</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>6</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <f t="shared" ref="F13:F30" si="3">G12</f>
         <v>6</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26">
-        <v>5</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="23">
         <v>7</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="23">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="26">
-        <v>6</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="23">
         <v>14</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26">
+      <c r="D16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="26">
-        <v>7</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26">
-        <v>8</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="23">
         <v>14</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="23">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="26">
-        <v>9</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="23">
         <v>10</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="23">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="23">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="26">
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="23">
         <v>2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="31" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="26">
-        <v>11</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="23">
         <v>1</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="23">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="23">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="26">
-        <v>12</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23">
         <v>10</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="23">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28" t="s">
+      <c r="C22" s="23" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="26">
-        <v>13</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="23">
         <v>10</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="23">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
+      <c r="H22" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="26">
-        <v>14</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="D23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="23">
         <v>6</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="23">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28" t="s">
+      <c r="C24" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="26">
-        <v>15</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="23">
         <v>8</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28" t="s">
+      <c r="C25" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="26">
-        <v>16</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D25" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="23">
         <v>6</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="23">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="23">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="26">
-        <v>17</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="23">
         <v>1</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="23">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>18</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28" t="s">
+      <c r="C27" s="23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="26">
-        <v>18</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="23">
         <v>20</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="23">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="23">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="26">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="D28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="23">
         <v>20</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="23">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="23">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28" t="s">
+      <c r="C29" s="23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="46.8">
-      <c r="A29" s="26">
-        <v>20</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="23">
         <v>10</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="23">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="23">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28" t="s">
+      <c r="H29" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>21</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="26">
-        <v>21</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="D30" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="23">
         <v>2</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="23">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="23">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28" t="s">
+      <c r="H30" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28" t="s">
+      <c r="C32" s="23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="26">
-        <v>1</v>
-      </c>
-      <c r="B32" s="26" t="s">
+      <c r="D32" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="23">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="I32" s="25"/>
+      <c r="J32" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="26">
-        <v>3</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>3</v>
-      </c>
-      <c r="H32" s="27" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>2</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
+      <c r="C33" s="23" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="26">
-        <v>2</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="23">
         <v>6</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="23">
         <f>G32</f>
         <v>3</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <f>F33+E33</f>
         <v>9</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I33" s="27" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>3</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="C34" s="23" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="26">
-        <v>3</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="D34" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="23">
         <v>8</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="23">
         <f t="shared" ref="F34:F40" si="4">G33</f>
         <v>9</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="23">
         <f t="shared" ref="G34:G40" si="5">F34+E34</f>
         <v>17</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>4</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28" t="s">
+      <c r="C35" s="23" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="26">
-        <v>4</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="D35" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="23">
         <v>7</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="23">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="23">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>5</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28" t="s">
+      <c r="C36" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="26">
-        <v>5</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="D36" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="23">
         <v>7</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="23">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="23">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>6</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28" t="s">
+      <c r="C37" s="23" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="26">
-        <v>6</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="26">
+      <c r="D37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="23">
         <v>8</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="23">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="23">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>7</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28" t="s">
+      <c r="C38" s="23" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="26">
-        <v>7</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="26">
+      <c r="D38" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="23">
         <v>16</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="23">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="23">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28" t="s">
+      <c r="H38" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>8</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="26">
+      <c r="D39" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="23">
         <v>8</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="26">
-        <v>8</v>
-      </c>
-      <c r="F39" s="26">
+      <c r="F39" s="23">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="23">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>9</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="26">
-        <v>9</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="C40" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="23">
         <v>97</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="23">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="23">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="H40" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
